--- a/medicine/Mort/La_Mort_d'Hyacinthe_(Broc)/La_Mort_d'Hyacinthe_(Broc).xlsx
+++ b/medicine/Mort/La_Mort_d'Hyacinthe_(Broc)/La_Mort_d'Hyacinthe_(Broc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort d'Hyacinthe est un tableau peint par Jean Broc. Exposé au Salon de 1801 l'œuvre d'inspiration mythologique, est un des rares témoignages du néo-classicisme radical prôné par la secte des Barbus, groupe d'artistes dont faisait partie le peintre et qui s'opposait au style officiel de leur maitre Jacques-Louis David. Depuis 1899 le tableau appartient aux collections municipales de la ville de Poitiers, et est exposé au musée Sainte-Croix.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la version la plus commune du mythe, Hyacinthe est le plus jeune fils du roi d'Amyclées, Amyclas (ou du roi de Sparte, Œbale). D'une beauté exceptionnelle, il est aimé d'Apollon et de Zéphyr, ou de Borée. Alors qu'Apollon lui apprend à lancer le disque, Hyacinthe est accidentellement (ou à cause de Zéphyr, selon la version) frappé à la tempe par le disque[1], et meurt[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la version la plus commune du mythe, Hyacinthe est le plus jeune fils du roi d'Amyclées, Amyclas (ou du roi de Sparte, Œbale). D'une beauté exceptionnelle, il est aimé d'Apollon et de Zéphyr, ou de Borée. Alors qu'Apollon lui apprend à lancer le disque, Hyacinthe est accidentellement (ou à cause de Zéphyr, selon la version) frappé à la tempe par le disque, et meurt.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Exposé au salon de 1801, n° 45, en pendant d'un tableau Le naufrage de Virginie, n° 44.
 Sans doute reéxposé au salon de 1814, n° 155 sous le titre Hyacinthe blessé.
-Acheté par le baron Demarçay[3]et donné par sa femme au musée de Poitiers en 1899, car inconvenant dans la maison où étaient élevées ses petites-filles[4].</t>
+Acheté par le baron Demarçayet donné par sa femme au musée de Poitiers en 1899, car inconvenant dans la maison où étaient élevées ses petites-filles.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1974, De David à Delacroix, la peinture française de 1774 à 1830, Paris-Detroit-New York[5], n° 16, notice de Robert Rosenblum, pages 340-341.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1974, De David à Delacroix, la peinture française de 1774 à 1830, Paris-Detroit-New York, n° 16, notice de Robert Rosenblum, pages 340-341.
 1975, Search for Innocence, University of Maryland Art Gallery.
 1989, La Mort de Bara, Avignon, musée Calvet.
 1997, Goodbye to Berlin, Berlin, Schwules Museum.
@@ -584,9 +602,9 @@
 2006, Les Artistes américains au Louvre, Paris, Musée du Louvre, du 14 juin au 18 septembre.
 2009-2010, Lagrima de Eros, Madrid, musée Thyssen-Bornemisza.
 2010, Utopia Matters : from Brotherhoods to Bauhaus, Berlin, Deutsche Guggenheim ; Venise, Peggy Guggenheim Collection.
-2012, L'art d'aimer, de la séduction à la volupté, Évian, Palais Lumière[6].
-2013-2014,  Masculin / Masculin, Paris, musée d'Orsay[7].
-2018-2019, Amour, Louvre-Lens[8].
+2012, L'art d'aimer, de la séduction à la volupté, Évian, Palais Lumière.
+2013-2014,  Masculin / Masculin, Paris, musée d'Orsay.
+2018-2019, Amour, Louvre-Lens.
 2023-2024, Flower power, Giverny, MDIG.</t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau, de format figure, montre Apollon, reconnaissable à sa cape rouge et portant sa lyre en bandoulière, tenant dans ses bras Hyacinthe en train de s'effondrer. À ses pieds le disque fatal. Le vent Zéphyr agite la cape d'Apollon, et l'on discerne des fleurs éparses au premier plan. En arrière-plan des arbres et des buissons, une étendue d'eau (un lac ou une rivière) et une montagne constituent le décor de la scène
 </t>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Explication de Charles Paul Landon pour le tableau exposé en 1801</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Ce sujet (dont on a déjà donné une esquisse dans ce 2e vol. p. 23, d'après le modèle en plâtre par Callamar), représente la mort d'Hyacinthe, favori d'Apollon, jouant au palet avec ce Dieu, Le jeune homme est atteint d'un coup mortel; il expire dans les bras d'Apollon, qui le change en une fleur qui porte son nom (Voyez la page ci-dessus indiquée).
@@ -667,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La_Mort_d%27Hyacinthe_(Broc)</t>
+          <t>La_Mort_d'Hyacinthe_(Broc)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +707,9 @@
           <t>Œuvres d'autres artistes du même sujet</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Avant Broc :
 Rubens, Madrid, musée du Prado.
